--- a/docs/doc_webengine.xlsx
+++ b/docs/doc_webengine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="626">
   <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
@@ -669,6 +669,12 @@
   </si>
   <si>
     <t xml:space="preserve">usuario:usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carmentorre</t>
   </si>
   <si>
     <t xml:space="preserve">Hp → linux mint</t>
@@ -2258,6 +2264,14 @@
     </font>
     <font>
       <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
@@ -2275,14 +2289,6 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="10"/>
       <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2572,7 +2578,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2757,6 +2763,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2789,7 +2803,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2817,11 +2831,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2841,7 +2855,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2861,7 +2875,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2877,43 +2891,43 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3013,7 +3027,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3037,7 +3051,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3057,7 +3071,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3113,11 +3127,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="24" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="24" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3260,7 +3274,7 @@
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -4902,14 +4916,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5161,376 +5175,382 @@
         <v>214</v>
       </c>
       <c r="B21" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>213</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-    </row>
-    <row r="22" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>216</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
     </row>
-    <row r="23" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>218</v>
-      </c>
+    <row r="23" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
-    <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44" t="s">
-        <v>219</v>
+    <row r="24" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="43" t="s">
+        <v>217</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="s">
+    <row r="25" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B27" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B28" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D30" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="51"/>
-    </row>
-    <row r="28" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="50" t="s">
+      <c r="E30" s="53"/>
+    </row>
+    <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D31" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E31" s="54" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="55" t="s">
+    <row r="32" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="B32" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E32" s="54" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="50" t="s">
+    <row r="33" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="B33" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="53"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="53" t="s">
+      <c r="C33" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="53"/>
-      <c r="B33" s="56" t="s">
+      <c r="D33" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="55"/>
+      <c r="B36" s="58" t="s">
         <v>237</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
-      <c r="B36" s="57" t="s">
-        <v>238</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="53"/>
-      <c r="B37" s="56" t="s">
-        <v>239</v>
+      <c r="A37" s="18"/>
+      <c r="B37" s="58" t="s">
+        <v>238</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="53"/>
-      <c r="B38" s="56" t="s">
-        <v>240</v>
+      <c r="A38" s="18"/>
+      <c r="B38" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46"/>
-      <c r="B39" s="56" t="s">
-        <v>241</v>
+      <c r="A39" s="18"/>
+      <c r="B39" s="59" t="s">
+        <v>240</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47" t="s">
-        <v>242</v>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58" t="s">
+        <v>241</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19" t="s">
-        <v>243</v>
+      <c r="A41" s="55"/>
+      <c r="B41" s="58" t="s">
+        <v>242</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="58" t="s">
+        <v>243</v>
+      </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49" t="s">
+        <v>244</v>
+      </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="58" t="s">
-        <v>189</v>
-      </c>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="53" t="s">
-        <v>245</v>
-      </c>
+      <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="53"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="60" t="s">
+        <v>189</v>
+      </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="53"/>
+      <c r="A48" s="55" t="s">
+        <v>247</v>
+      </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="19" t="s">
         <v>249</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="51" t="s">
-        <v>250</v>
+      <c r="D49" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="E49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
-        <v>251</v>
-      </c>
+      <c r="A50" s="55"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
-        <v>252</v>
-      </c>
+      <c r="A51" s="55"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
     </row>
-    <row r="52" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
+    <row r="52" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-    </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="59" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="51" t="s">
+      <c r="B55" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" s="51" t="n">
-        <v>566600</v>
-      </c>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="A56" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>258</v>
+      </c>
       <c r="E56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="A57" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="53" t="n">
+        <v>566600</v>
+      </c>
       <c r="E57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5560,6 +5580,27 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
+    </row>
+    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5570,18 +5611,19 @@
     <hyperlink ref="C5" r:id="rId2" display="maricarmen@unita.es"/>
     <hyperlink ref="C6" r:id="rId3" display="maricarmen.unita@gmail.com"/>
     <hyperlink ref="C7" r:id="rId4" display="smcarmengq@gmail.com"/>
-    <hyperlink ref="C27" r:id="rId5" display="mcgaqu@gmail.com"/>
-    <hyperlink ref="C28" r:id="rId6" display="maricarmen.unita@gmail.com"/>
-    <hyperlink ref="E28" r:id="rId7" display="maricarmen@unita.es"/>
-    <hyperlink ref="B29" r:id="rId8" display="https://eu.pythonanywhere.com/"/>
-    <hyperlink ref="C29" r:id="rId9" display="mcmultiges&#10;maricarmen.unita@gmail.com"/>
-    <hyperlink ref="E29" r:id="rId10" display="maricarmen@unita.es"/>
-    <hyperlink ref="C30" r:id="rId11" display="g5server&#10;info@g5server.com"/>
-    <hyperlink ref="C44" r:id="rId12" display="smcarmengq@gmail.com"/>
-    <hyperlink ref="C46" r:id="rId13" display="maricarmen.unita@gmail.com"/>
+    <hyperlink ref="C21" r:id="rId5" display="mcgaqu@gmail.com"/>
+    <hyperlink ref="C30" r:id="rId6" display="mcgaqu@gmail.com"/>
+    <hyperlink ref="C31" r:id="rId7" display="maricarmen.unita@gmail.com"/>
+    <hyperlink ref="E31" r:id="rId8" display="maricarmen@unita.es"/>
+    <hyperlink ref="B32" r:id="rId9" display="https://eu.pythonanywhere.com/"/>
+    <hyperlink ref="C32" r:id="rId10" display="mcmultiges&#10;maricarmen.unita@gmail.com"/>
+    <hyperlink ref="E32" r:id="rId11" display="maricarmen@unita.es"/>
+    <hyperlink ref="C33" r:id="rId12" display="g5server&#10;info@g5server.com"/>
+    <hyperlink ref="C47" r:id="rId13" display="smcarmengq@gmail.com"/>
     <hyperlink ref="C49" r:id="rId14" display="maricarmen.unita@gmail.com"/>
-    <hyperlink ref="C53" r:id="rId15" display="mikel.gonfer@gmail.com"/>
-    <hyperlink ref="C54" r:id="rId16" display="lpolg50@gmail.com"/>
+    <hyperlink ref="C52" r:id="rId15" display="maricarmen.unita@gmail.com"/>
+    <hyperlink ref="C56" r:id="rId16" display="mikel.gonfer@gmail.com"/>
+    <hyperlink ref="C57" r:id="rId17" display="lpolg50@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
@@ -5600,7 +5642,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -5621,1467 +5663,1467 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="D2" s="64" t="s">
         <v>265</v>
       </c>
+      <c r="E2" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="A3" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="A4" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="64" t="s">
+      <c r="A6" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="A7" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+    </row>
+    <row r="9" customFormat="false" ht="84.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+    </row>
+    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" customFormat="false" ht="84.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-    </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-    </row>
-    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="B13" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="B14" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="C16" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="B16" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="A17" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="A19" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" s="80" customFormat="true" ht="73.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="74" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="AMI21" s="81"/>
-      <c r="AMJ21" s="81"/>
-    </row>
-    <row r="22" s="80" customFormat="true" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="78" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" s="82" customFormat="true" ht="73.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="74" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="AMI22" s="81"/>
-      <c r="AMJ22" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="AMI21" s="83"/>
+      <c r="AMJ21" s="83"/>
+    </row>
+    <row r="22" s="82" customFormat="true" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="AMI22" s="83"/>
+      <c r="AMJ22" s="83"/>
     </row>
     <row r="23" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="A23" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="74"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="C25" s="74" t="s">
+      <c r="A25" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="B25" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="A26" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="A27" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
     </row>
     <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="83" t="s">
-        <v>316</v>
-      </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="56"/>
+      <c r="A28" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="86"/>
+      <c r="C28" s="85" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="74" t="s">
-        <v>315</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="85" t="s">
+      <c r="A29" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="74"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="74"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="86" t="s">
-        <v>318</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32" s="86" t="s">
+      <c r="A32" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
+      <c r="B32" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="86" t="s">
-        <v>321</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
+      <c r="A33" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
     </row>
     <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="62" t="s">
-        <v>325</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="A36" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>327</v>
-      </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="A37" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="A38" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="74" t="s">
-        <v>330</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="56" t="s">
+      <c r="A39" s="76" t="s">
         <v>332</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="B39" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
     </row>
     <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
+      <c r="A40" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" s="90"/>
+      <c r="C40" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
     </row>
     <row r="41" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>336</v>
-      </c>
-      <c r="C41" s="75" t="s">
+      <c r="A41" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
+      <c r="B41" s="90" t="s">
+        <v>338</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
     </row>
     <row r="42" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>339</v>
-      </c>
-      <c r="C42" s="75" t="s">
+      <c r="A42" s="77" t="s">
         <v>340</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
+      <c r="B42" s="90" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
+      <c r="A43" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" s="90"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="74" t="s">
-        <v>342</v>
-      </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
+      <c r="A44" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="74" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
+      <c r="A45" s="76" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
     </row>
     <row r="46" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="88" t="s">
+      <c r="A46" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>350</v>
+      </c>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="AMI48" s="93"/>
+      <c r="AMJ48" s="93"/>
+    </row>
+    <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B49" s="90" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" s="90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="B51" s="90"/>
+      <c r="C51" s="76" t="s">
+        <v>359</v>
+      </c>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>361</v>
+      </c>
+      <c r="C52" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="B53" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="95" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+    </row>
+    <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="77"/>
+      <c r="B55" s="98" t="s">
+        <v>368</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="D55" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="77"/>
+      <c r="B56" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+    </row>
+    <row r="57" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="77"/>
+      <c r="B57" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="77"/>
+      <c r="B58" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" s="79" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+    </row>
+    <row r="59" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="77"/>
+      <c r="B59" s="101" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+    </row>
+    <row r="60" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="77"/>
+      <c r="B60" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="C60" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+    </row>
+    <row r="61" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="77"/>
+      <c r="B61" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>381</v>
+      </c>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+    </row>
+    <row r="62" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="77"/>
+      <c r="B62" s="90" t="s">
+        <v>382</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+    </row>
+    <row r="63" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="77"/>
+      <c r="B63" s="90" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="77"/>
+      <c r="B64" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="D64" s="99" t="s">
+        <v>389</v>
+      </c>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+    </row>
+    <row r="65" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="76"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+    </row>
+    <row r="66" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="B66" s="92"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="AMI66" s="93"/>
+      <c r="AMJ66" s="93"/>
+    </row>
+    <row r="67" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="58"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="AMI67" s="93"/>
+      <c r="AMJ67" s="93"/>
+    </row>
+    <row r="68" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68" s="92"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="AMI68" s="93"/>
+      <c r="AMJ68" s="93"/>
+    </row>
+    <row r="69" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="58"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="AMI69" s="93"/>
+      <c r="AMJ69" s="93"/>
+    </row>
+    <row r="70" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="58"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="AMI70" s="93"/>
+      <c r="AMJ70" s="93"/>
+    </row>
+    <row r="71" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="76" t="s">
+        <v>392</v>
+      </c>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+    </row>
+    <row r="72" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+    </row>
+    <row r="73" customFormat="false" ht="102.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="B73" s="76"/>
+      <c r="C73" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+    </row>
+    <row r="74" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+    </row>
+    <row r="75" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="C46" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-    </row>
-    <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-    </row>
-    <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="B48" s="90" t="s">
-        <v>345</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="AMI48" s="91"/>
-      <c r="AMJ48" s="91"/>
-    </row>
-    <row r="49" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="C49" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-    </row>
-    <row r="50" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="C50" s="75" t="s">
-        <v>355</v>
-      </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-    </row>
-    <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="74" t="s">
-        <v>357</v>
-      </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-    </row>
-    <row r="52" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="B52" s="88" t="s">
-        <v>359</v>
-      </c>
-      <c r="C52" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-    </row>
-    <row r="53" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="B53" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="C53" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-    </row>
-    <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="B54" s="94" t="s">
-        <v>364</v>
-      </c>
-      <c r="C54" s="93" t="s">
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+    </row>
+    <row r="76" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="76" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" s="76"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+    </row>
+    <row r="77" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-    </row>
-    <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="75"/>
-      <c r="B55" s="96" t="s">
+      <c r="B77" s="96" t="s">
         <v>366</v>
       </c>
-      <c r="C55" s="91" t="s">
-        <v>367</v>
-      </c>
-      <c r="D55" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-    </row>
-    <row r="56" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="75"/>
-      <c r="B56" s="98" t="s">
-        <v>369</v>
-      </c>
-      <c r="C56" s="77" t="s">
+      <c r="C77" s="95" t="s">
+        <v>399</v>
+      </c>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+    </row>
+    <row r="78" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="77"/>
+      <c r="B78" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="C78" s="104" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="99" t="s">
         <v>370</v>
       </c>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-    </row>
-    <row r="57" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="75"/>
-      <c r="B57" s="98" t="s">
-        <v>371</v>
-      </c>
-      <c r="C57" s="77" t="s">
-        <v>372</v>
-      </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-    </row>
-    <row r="58" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="75"/>
-      <c r="B58" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="C58" s="77" t="s">
-        <v>374</v>
-      </c>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-    </row>
-    <row r="59" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="75"/>
-      <c r="B59" s="99" t="s">
-        <v>375</v>
-      </c>
-      <c r="C59" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-    </row>
-    <row r="60" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="75"/>
-      <c r="B60" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="C60" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-    </row>
-    <row r="61" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="75"/>
-      <c r="B61" s="101" t="s">
-        <v>378</v>
-      </c>
-      <c r="C61" s="77" t="s">
-        <v>379</v>
-      </c>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-    </row>
-    <row r="62" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="75"/>
-      <c r="B62" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>381</v>
-      </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-    </row>
-    <row r="63" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="75"/>
-      <c r="B63" s="88" t="s">
-        <v>382</v>
-      </c>
-      <c r="C63" s="77" t="s">
-        <v>383</v>
-      </c>
-      <c r="D63" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-    </row>
-    <row r="64" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="75"/>
-      <c r="B64" s="88" t="s">
-        <v>385</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="D64" s="97" t="s">
-        <v>387</v>
-      </c>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-    </row>
-    <row r="65" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="74"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-    </row>
-    <row r="66" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="74" t="s">
-        <v>388</v>
-      </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="AMI66" s="91"/>
-      <c r="AMJ66" s="91"/>
-    </row>
-    <row r="67" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="56"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="AMI67" s="91"/>
-      <c r="AMJ67" s="91"/>
-    </row>
-    <row r="68" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="AMI68" s="91"/>
-      <c r="AMJ68" s="91"/>
-    </row>
-    <row r="69" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="56"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="AMI69" s="91"/>
-      <c r="AMJ69" s="91"/>
-    </row>
-    <row r="70" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="56"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="AMI70" s="91"/>
-      <c r="AMJ70" s="91"/>
-    </row>
-    <row r="71" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="74" t="s">
-        <v>390</v>
-      </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="74" t="s">
-        <v>391</v>
-      </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-    </row>
-    <row r="73" customFormat="false" ht="102.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="75" t="s">
-        <v>394</v>
-      </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-    </row>
-    <row r="74" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-    </row>
-    <row r="75" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="74" t="s">
-        <v>343</v>
-      </c>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-    </row>
-    <row r="76" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="B76" s="74"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-    </row>
-    <row r="77" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="B77" s="94" t="s">
-        <v>364</v>
-      </c>
-      <c r="C77" s="93" t="s">
-        <v>397</v>
-      </c>
-      <c r="D77" s="95"/>
-      <c r="E77" s="95"/>
-      <c r="F77" s="95"/>
-    </row>
-    <row r="78" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="75"/>
-      <c r="B78" s="96" t="s">
-        <v>398</v>
-      </c>
-      <c r="C78" s="102" t="s">
-        <v>399</v>
-      </c>
-      <c r="D78" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
     </row>
     <row r="79" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="75"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
+      <c r="A79" s="77"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
     </row>
     <row r="80" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="75"/>
-      <c r="B80" s="98"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
     </row>
     <row r="81" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="75"/>
-      <c r="B81" s="98"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
+      <c r="A81" s="77"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
     </row>
     <row r="82" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="75"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
     </row>
     <row r="83" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="75"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
     </row>
     <row r="84" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
     </row>
     <row r="85" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="74"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
     </row>
     <row r="86" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="AMI86" s="91"/>
-      <c r="AMJ86" s="91"/>
+      <c r="A86" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="AMI86" s="93"/>
+      <c r="AMJ86" s="93"/>
     </row>
     <row r="87" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="56"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="AMI87" s="91"/>
-      <c r="AMJ87" s="91"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="AMI87" s="93"/>
+      <c r="AMJ87" s="93"/>
     </row>
     <row r="88" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
+      <c r="A88" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
     </row>
     <row r="89" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="74"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="74"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
+      <c r="A89" s="76"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
     </row>
     <row r="90" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="74"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
+      <c r="A90" s="76"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
     </row>
     <row r="91" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="74"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
+      <c r="A91" s="76"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
     </row>
     <row r="92" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="B92" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="C92" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
+      <c r="A92" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
     </row>
     <row r="93" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="62" t="s">
-        <v>404</v>
-      </c>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
+      <c r="A93" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
     </row>
     <row r="94" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="62"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
     </row>
     <row r="95" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="62" t="s">
+      <c r="A95" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="B95" s="64" t="s">
         <v>405</v>
       </c>
-      <c r="B95" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="C95" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
+      <c r="C95" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
     </row>
     <row r="96" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="62"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
     </row>
     <row r="97" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
+      <c r="A97" s="76"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
     </row>
     <row r="98" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="74"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
     </row>
     <row r="99" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
+      <c r="A99" s="76"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
     </row>
     <row r="100" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="74"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
     </row>
     <row r="101" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="A101" s="76"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
     </row>
     <row r="102" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="74"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
+      <c r="A102" s="76"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
     </row>
     <row r="103" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="74"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
+      <c r="A103" s="76"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
     </row>
     <row r="104" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="74"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
+      <c r="A104" s="76"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
+      <c r="A105" s="76"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
     </row>
     <row r="106" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="74"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
+      <c r="A106" s="76"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
     </row>
     <row r="107" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="103" t="s">
-        <v>406</v>
-      </c>
-      <c r="B107" s="103" t="s">
-        <v>407</v>
-      </c>
-      <c r="C107" s="53"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
+      <c r="A107" s="105" t="s">
+        <v>408</v>
+      </c>
+      <c r="B107" s="105" t="s">
+        <v>409</v>
+      </c>
+      <c r="C107" s="55"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="106"/>
     </row>
     <row r="108" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="104" t="s">
-        <v>408</v>
-      </c>
-      <c r="B108" s="103"/>
-      <c r="C108" s="46" t="s">
+      <c r="A108" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" s="105"/>
+      <c r="C108" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="106"/>
+    </row>
+    <row r="109" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" s="105"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="106"/>
+    </row>
+    <row r="110" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" s="105"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="106"/>
+    </row>
+    <row r="111" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="B111" s="105"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="106"/>
+    </row>
+    <row r="112" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="B112" s="105"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="106"/>
+    </row>
+    <row r="113" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="B113" s="105"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="106"/>
+    </row>
+    <row r="114" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="B114" s="105"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="106"/>
+    </row>
+    <row r="115" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" s="105"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="106"/>
+    </row>
+    <row r="116" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" s="105"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="106"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="106"/>
+    </row>
+    <row r="117" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="B117" s="105"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="106"/>
+      <c r="F117" s="106"/>
+    </row>
+    <row r="118" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="105"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="106"/>
+      <c r="E118" s="106"/>
+      <c r="F118" s="106"/>
+    </row>
+    <row r="119" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="B119" s="105"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="106"/>
+    </row>
+    <row r="120" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="105"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="106"/>
+      <c r="F120" s="106"/>
+    </row>
+    <row r="121" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="88" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
-      <c r="F108" s="104"/>
-    </row>
-    <row r="109" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="104" t="s">
-        <v>410</v>
-      </c>
-      <c r="B109" s="103"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="104"/>
-      <c r="E109" s="104"/>
-      <c r="F109" s="104"/>
-    </row>
-    <row r="110" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="104" t="s">
-        <v>411</v>
-      </c>
-      <c r="B110" s="103"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="104"/>
-      <c r="E110" s="104"/>
-      <c r="F110" s="104"/>
-    </row>
-    <row r="111" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="104" t="s">
-        <v>412</v>
-      </c>
-      <c r="B111" s="103"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="104"/>
-      <c r="E111" s="104"/>
-      <c r="F111" s="104"/>
-    </row>
-    <row r="112" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="104" t="s">
-        <v>413</v>
-      </c>
-      <c r="B112" s="103"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
-    </row>
-    <row r="113" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="B113" s="103"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="104"/>
-      <c r="F113" s="104"/>
-    </row>
-    <row r="114" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="104" t="s">
-        <v>415</v>
-      </c>
-      <c r="B114" s="103"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="104"/>
-      <c r="E114" s="104"/>
-      <c r="F114" s="104"/>
-    </row>
-    <row r="115" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="104" t="s">
-        <v>416</v>
-      </c>
-      <c r="B115" s="103"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="104"/>
-      <c r="E115" s="104"/>
-      <c r="F115" s="104"/>
-    </row>
-    <row r="116" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="104" t="s">
-        <v>417</v>
-      </c>
-      <c r="B116" s="103"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="104"/>
-      <c r="E116" s="104"/>
-      <c r="F116" s="104"/>
-    </row>
-    <row r="117" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="104" t="s">
-        <v>418</v>
-      </c>
-      <c r="B117" s="103"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="104"/>
-      <c r="E117" s="104"/>
-      <c r="F117" s="104"/>
-    </row>
-    <row r="118" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="103"/>
-      <c r="B118" s="103"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="104"/>
-      <c r="E118" s="104"/>
-      <c r="F118" s="104"/>
-    </row>
-    <row r="119" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="104" t="s">
-        <v>419</v>
-      </c>
-      <c r="B119" s="103"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="104"/>
-      <c r="E119" s="104"/>
-      <c r="F119" s="104"/>
-    </row>
-    <row r="120" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="103"/>
-      <c r="B120" s="103"/>
-      <c r="C120" s="46"/>
-      <c r="D120" s="104"/>
-      <c r="E120" s="104"/>
-      <c r="F120" s="104"/>
-    </row>
-    <row r="121" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="86" t="s">
-        <v>420</v>
-      </c>
-      <c r="B121" s="86" t="s">
-        <v>407</v>
-      </c>
-      <c r="C121" s="86"/>
-      <c r="D121" s="87"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="87"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
     </row>
     <row r="122" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="105" t="s">
+      <c r="A122" s="107" t="s">
+        <v>423</v>
+      </c>
+      <c r="B122" s="107" t="s">
+        <v>424</v>
+      </c>
+      <c r="C122" s="107"/>
+      <c r="D122" s="108"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="108"/>
+    </row>
+    <row r="123" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="107" t="s">
+        <v>425</v>
+      </c>
+      <c r="B123" s="107"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="108"/>
+      <c r="E123" s="108"/>
+      <c r="F123" s="108"/>
+    </row>
+    <row r="124" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="107"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="108"/>
+      <c r="F124" s="108"/>
+    </row>
+    <row r="125" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="108" t="s">
         <v>421</v>
       </c>
-      <c r="B122" s="105" t="s">
-        <v>422</v>
-      </c>
-      <c r="C122" s="105"/>
-      <c r="D122" s="106"/>
-      <c r="E122" s="106"/>
-      <c r="F122" s="106"/>
-    </row>
-    <row r="123" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="105" t="s">
-        <v>423</v>
-      </c>
-      <c r="B123" s="105"/>
-      <c r="C123" s="105"/>
-      <c r="D123" s="106"/>
-      <c r="E123" s="106"/>
-      <c r="F123" s="106"/>
-    </row>
-    <row r="124" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="105"/>
-      <c r="B124" s="105"/>
-      <c r="C124" s="105"/>
-      <c r="D124" s="106"/>
-      <c r="E124" s="106"/>
-      <c r="F124" s="106"/>
-    </row>
-    <row r="125" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="106" t="s">
-        <v>419</v>
-      </c>
-      <c r="B125" s="105"/>
-      <c r="C125" s="105"/>
-      <c r="D125" s="106"/>
-      <c r="E125" s="106"/>
-      <c r="F125" s="106"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="107"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="108"/>
     </row>
     <row r="126" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="105"/>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="106"/>
-      <c r="E126" s="106"/>
-      <c r="F126" s="106"/>
+      <c r="A126" s="107"/>
+      <c r="B126" s="107"/>
+      <c r="C126" s="107"/>
+      <c r="D126" s="108"/>
+      <c r="E126" s="108"/>
+      <c r="F126" s="108"/>
     </row>
     <row r="127" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="106" t="s">
-        <v>424</v>
-      </c>
-      <c r="B127" s="106" t="s">
-        <v>425</v>
-      </c>
-      <c r="C127" s="105"/>
-      <c r="D127" s="106"/>
-      <c r="E127" s="106"/>
-      <c r="F127" s="106"/>
+      <c r="A127" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="B127" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="C127" s="107"/>
+      <c r="D127" s="108"/>
+      <c r="E127" s="108"/>
+      <c r="F127" s="108"/>
     </row>
     <row r="128" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="106" t="s">
-        <v>426</v>
-      </c>
-      <c r="B128" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="C128" s="105"/>
-      <c r="D128" s="106"/>
-      <c r="E128" s="106"/>
-      <c r="F128" s="106"/>
+      <c r="A128" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="B128" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="C128" s="107"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="108"/>
+      <c r="F128" s="108"/>
     </row>
     <row r="129" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="B129" s="106" t="s">
-        <v>429</v>
-      </c>
-      <c r="C129" s="105"/>
-      <c r="D129" s="106"/>
-      <c r="E129" s="106"/>
-      <c r="F129" s="106"/>
-    </row>
-    <row r="130" s="107" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="53"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
-      <c r="F130" s="46"/>
-      <c r="AMI130" s="108"/>
-      <c r="AMJ130" s="108"/>
+      <c r="A129" s="108" t="s">
+        <v>430</v>
+      </c>
+      <c r="B129" s="108" t="s">
+        <v>431</v>
+      </c>
+      <c r="C129" s="107"/>
+      <c r="D129" s="108"/>
+      <c r="E129" s="108"/>
+      <c r="F129" s="108"/>
+    </row>
+    <row r="130" s="109" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="55"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="AMI130" s="110"/>
+      <c r="AMJ130" s="110"/>
     </row>
     <row r="131" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="B131" s="74" t="s">
-        <v>431</v>
+      <c r="A131" s="55" t="s">
+        <v>432</v>
+      </c>
+      <c r="B131" s="76" t="s">
+        <v>433</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
@@ -7089,34 +7131,34 @@
       <c r="F131" s="19"/>
     </row>
     <row r="132" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="53" t="s">
-        <v>432</v>
-      </c>
-      <c r="B132" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="C132" s="56" t="s">
+      <c r="A132" s="55" t="s">
         <v>434</v>
       </c>
-      <c r="D132" s="56" t="s">
+      <c r="B132" s="76" t="s">
         <v>435</v>
       </c>
-      <c r="E132" s="56" t="s">
+      <c r="C132" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="F132" s="56" t="s">
+      <c r="D132" s="58" t="s">
         <v>437</v>
       </c>
+      <c r="E132" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="F132" s="58" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="B133" s="74" t="s">
-        <v>439</v>
-      </c>
-      <c r="C133" s="56" t="s">
+      <c r="A133" s="55" t="s">
         <v>440</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="C133" s="58" t="s">
+        <v>442</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
@@ -7124,7 +7166,7 @@
     </row>
     <row r="134" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="18"/>
-      <c r="B134" s="57"/>
+      <c r="B134" s="59"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
@@ -7132,36 +7174,36 @@
     </row>
     <row r="135" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="18"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="59"/>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
     </row>
     <row r="136" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="B136" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="C136" s="74" t="s">
+      <c r="A136" s="55" t="s">
         <v>443</v>
       </c>
-      <c r="D136" s="56" t="s">
+      <c r="B136" s="76" t="s">
         <v>444</v>
       </c>
-      <c r="E136" s="56" t="s">
+      <c r="C136" s="76" t="s">
         <v>445</v>
       </c>
+      <c r="D136" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="E136" s="58" t="s">
+        <v>447</v>
+      </c>
       <c r="F136" s="19"/>
     </row>
     <row r="137" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="53" t="s">
-        <v>446</v>
-      </c>
-      <c r="B137" s="74" t="s">
-        <v>447</v>
+      <c r="A137" s="55" t="s">
+        <v>448</v>
+      </c>
+      <c r="B137" s="76" t="s">
+        <v>449</v>
       </c>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
@@ -7170,57 +7212,57 @@
     </row>
     <row r="138" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="18"/>
-      <c r="B138" s="57"/>
+      <c r="B138" s="59"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
     </row>
     <row r="139" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="B139" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="C139" s="56" t="s">
+      <c r="A139" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="D139" s="56" t="s">
+      <c r="B139" s="76" t="s">
         <v>451</v>
+      </c>
+      <c r="C139" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="D139" s="58" t="s">
+        <v>453</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
     </row>
     <row r="140" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="53" t="s">
-        <v>452</v>
-      </c>
-      <c r="B140" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="C140" s="74" t="s">
+      <c r="A140" s="55" t="s">
         <v>454</v>
+      </c>
+      <c r="B140" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="C140" s="76" t="s">
+        <v>456</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="57"/>
+      <c r="F140" s="59"/>
     </row>
     <row r="141" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="18"/>
-      <c r="B141" s="57"/>
+      <c r="B141" s="59"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="57"/>
+      <c r="F141" s="59"/>
     </row>
     <row r="142" customFormat="false" ht="20.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="18"/>
-      <c r="B142" s="57"/>
+      <c r="B142" s="59"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
-      <c r="F142" s="57"/>
+      <c r="F142" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7248,7 +7290,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -7265,445 +7307,445 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="109" t="s">
-        <v>455</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="A1" s="111" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>457</v>
-      </c>
-      <c r="D2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="D2" s="64" t="s">
         <v>460</v>
       </c>
+      <c r="E2" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="110" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+      <c r="A3" s="112" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74"/>
-      <c r="B4" s="56" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="110" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="A5" s="112" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="A6" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74" t="s">
-        <v>465</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="A7" s="76" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74" t="s">
-        <v>466</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="A8" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="110" t="s">
-        <v>467</v>
-      </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
+      <c r="A9" s="112" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
     </row>
     <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="74"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="110" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-    </row>
-    <row r="12" s="113" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="111" t="s">
-        <v>469</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="AMI12" s="114"/>
-      <c r="AMJ12" s="114"/>
-    </row>
-    <row r="13" s="113" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="111" t="s">
+      <c r="A11" s="112" t="s">
         <v>470</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="AMI13" s="114"/>
-      <c r="AMJ13" s="114"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+    </row>
+    <row r="12" s="115" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="113" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="AMI12" s="116"/>
+      <c r="AMJ12" s="116"/>
+    </row>
+    <row r="13" s="115" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="113" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="AMI13" s="116"/>
+      <c r="AMJ13" s="116"/>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="110" t="s">
-        <v>471</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
+      <c r="A14" s="112" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="110" t="s">
-        <v>472</v>
-      </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-    </row>
-    <row r="17" s="113" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="AMI17" s="114"/>
-      <c r="AMJ17" s="114"/>
+      <c r="A16" s="112" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+    </row>
+    <row r="17" s="115" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="AMI17" s="116"/>
+      <c r="AMJ17" s="116"/>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="110" t="s">
-        <v>473</v>
-      </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
+      <c r="A18" s="112" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C20" s="62" t="s">
+      <c r="A20" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="B20" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="C20" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="115" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="A21" s="117" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="117" t="s">
-        <v>479</v>
-      </c>
-      <c r="B22" s="118" t="s">
-        <v>480</v>
-      </c>
-      <c r="D22" s="118" t="s">
+      <c r="A22" s="119" t="s">
         <v>481</v>
       </c>
+      <c r="B22" s="120" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="118" t="s">
-        <v>482</v>
-      </c>
-      <c r="D23" s="118" t="s">
-        <v>482</v>
+      <c r="B23" s="120" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="118" t="s">
-        <v>483</v>
-      </c>
-      <c r="D24" s="119" t="s">
-        <v>484</v>
+      <c r="B24" s="120" t="s">
+        <v>485</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="118" t="s">
-        <v>485</v>
-      </c>
-      <c r="D25" s="119" t="s">
-        <v>485</v>
+      <c r="B25" s="120" t="s">
+        <v>487</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="118" t="s">
-        <v>486</v>
-      </c>
-      <c r="D26" s="119" t="s">
-        <v>486</v>
+      <c r="B26" s="120" t="s">
+        <v>488</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="118" t="s">
-        <v>487</v>
-      </c>
-      <c r="D27" s="119" t="s">
-        <v>487</v>
+      <c r="B27" s="120" t="s">
+        <v>489</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="118" t="s">
-        <v>488</v>
-      </c>
-      <c r="D28" s="119" t="s">
-        <v>488</v>
+      <c r="B28" s="120" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="118" t="s">
-        <v>489</v>
-      </c>
-      <c r="D29" s="119" t="s">
-        <v>489</v>
+      <c r="B29" s="120" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="118" t="s">
-        <v>490</v>
-      </c>
-      <c r="D30" s="119" t="s">
-        <v>490</v>
+      <c r="B30" s="120" t="s">
+        <v>492</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="118" t="s">
-        <v>491</v>
-      </c>
-      <c r="D31" s="118"/>
+      <c r="B31" s="120" t="s">
+        <v>493</v>
+      </c>
+      <c r="D31" s="120"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="118" t="s">
-        <v>492</v>
-      </c>
-      <c r="D32" s="118" t="s">
-        <v>493</v>
+      <c r="B32" s="120" t="s">
+        <v>494</v>
+      </c>
+      <c r="D32" s="120" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="118" t="s">
-        <v>494</v>
-      </c>
-      <c r="D33" s="118" t="s">
-        <v>495</v>
+      <c r="B33" s="120" t="s">
+        <v>496</v>
+      </c>
+      <c r="D33" s="120" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="118" t="s">
-        <v>496</v>
-      </c>
-      <c r="D34" s="118" t="s">
-        <v>497</v>
+      <c r="B34" s="120" t="s">
+        <v>498</v>
+      </c>
+      <c r="D34" s="120" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="118" t="s">
-        <v>498</v>
-      </c>
-      <c r="D35" s="118" t="s">
-        <v>499</v>
+      <c r="B35" s="120" t="s">
+        <v>500</v>
+      </c>
+      <c r="D35" s="120" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="118"/>
-      <c r="D36" s="118" t="s">
-        <v>500</v>
+      <c r="B36" s="120"/>
+      <c r="D36" s="120" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="118"/>
-      <c r="D37" s="118" t="s">
-        <v>501</v>
+      <c r="B37" s="120"/>
+      <c r="D37" s="120" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="118" t="s">
-        <v>502</v>
+      <c r="D38" s="120" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="115" t="s">
-        <v>503</v>
-      </c>
-      <c r="B41" s="115" t="s">
-        <v>504</v>
-      </c>
-      <c r="C41" s="115" t="s">
+      <c r="A41" s="117" t="s">
         <v>505</v>
       </c>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
+      <c r="B41" s="117" t="s">
+        <v>506</v>
+      </c>
+      <c r="C41" s="117" t="s">
+        <v>507</v>
+      </c>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
     </row>
     <row r="42" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="B42" s="120" t="s">
-        <v>507</v>
-      </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120" t="s">
+      <c r="A42" s="65" t="s">
         <v>508</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
+      <c r="B42" s="122" t="s">
+        <v>509</v>
+      </c>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122" t="s">
+        <v>510</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="63" t="s">
-        <v>509</v>
-      </c>
-      <c r="B43" s="120" t="s">
-        <v>510</v>
-      </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120" t="s">
+      <c r="A43" s="65" t="s">
         <v>511</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
+      <c r="B43" s="122" t="s">
+        <v>512</v>
+      </c>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122" t="s">
+        <v>513</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
     </row>
     <row r="44" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="63" t="s">
-        <v>512</v>
-      </c>
-      <c r="B44" s="120" t="s">
-        <v>513</v>
-      </c>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120" t="s">
+      <c r="A44" s="65" t="s">
         <v>514</v>
       </c>
-      <c r="E44" s="121"/>
-      <c r="F44" s="63"/>
+      <c r="B44" s="122" t="s">
+        <v>515</v>
+      </c>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122" t="s">
+        <v>516</v>
+      </c>
+      <c r="E44" s="123"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="63" t="s">
-        <v>515</v>
-      </c>
-      <c r="B45" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="C45" s="120"/>
+      <c r="A45" s="65" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" s="124" t="s">
+        <v>518</v>
+      </c>
+      <c r="C45" s="122"/>
       <c r="D45" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="E45" s="121"/>
-      <c r="F45" s="63"/>
-    </row>
-    <row r="46" s="123" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>519</v>
+      </c>
+      <c r="E45" s="123"/>
+      <c r="F45" s="65"/>
+    </row>
+    <row r="46" s="125" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMH46" s="0"/>
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="140.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="57" t="s">
-        <v>518</v>
-      </c>
-      <c r="B47" s="57"/>
+      <c r="A47" s="59" t="s">
+        <v>520</v>
+      </c>
+      <c r="B47" s="59"/>
       <c r="C47" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
+        <v>521</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7729,883 +7771,883 @@
   </sheetPr>
   <dimension ref="A1:AMJ123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="123" width="29.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="123" width="54.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="123" width="40.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="123" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="123" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="123" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="123" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="123" width="16.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="9" style="123" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="125" width="29.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="125" width="54.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="125" width="40.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="125" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="125" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="125" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="125" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="125" width="16.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="9" style="125" width="5.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="124"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="126"/>
-    </row>
-    <row r="2" s="128" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="127" t="s">
-        <v>520</v>
-      </c>
-      <c r="B2" s="127" t="s">
+      <c r="A1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+    </row>
+    <row r="2" s="130" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="129" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="127" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="127" t="s">
-        <v>522</v>
-      </c>
-      <c r="AMH2" s="129"/>
-      <c r="AMI2" s="129"/>
-      <c r="AMJ2" s="129"/>
+      <c r="C2" s="129" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>524</v>
+      </c>
+      <c r="AMH2" s="131"/>
+      <c r="AMI2" s="131"/>
+      <c r="AMJ2" s="131"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="130"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" s="130" t="s">
-        <v>524</v>
-      </c>
-      <c r="D5" s="130" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="133" t="s">
         <v>525</v>
       </c>
+      <c r="C5" s="132" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="130"/>
-      <c r="B6" s="130" t="s">
-        <v>526</v>
-      </c>
-      <c r="C6" s="130" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6" s="130" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="132" t="s">
         <v>528</v>
       </c>
+      <c r="C6" s="132" t="s">
+        <v>529</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="130" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" s="132"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130" t="s">
-        <v>531</v>
-      </c>
-      <c r="C8" s="130" t="s">
-        <v>532</v>
-      </c>
-      <c r="D8" s="132"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="132" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="132" t="s">
+        <v>534</v>
+      </c>
+      <c r="D8" s="134"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="132"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="134"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="134"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134"/>
     </row>
     <row r="12" s="16" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="62" t="s">
-        <v>533</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="A12" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="16" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="133" t="s">
-        <v>534</v>
-      </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="A14" s="135" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
     </row>
     <row r="15" s="16" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="16" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="131" t="s">
-        <v>523</v>
-      </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
+      <c r="A16" s="133" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="16" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="130" t="s">
-        <v>526</v>
-      </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
+      <c r="A17" s="132" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="16" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="130" t="s">
-        <v>529</v>
-      </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
+      <c r="A18" s="132" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="16" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="130" t="s">
-        <v>531</v>
-      </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
+      <c r="A19" s="132" t="s">
+        <v>533</v>
+      </c>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="16" customFormat="true" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="135"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="133" t="s">
-        <v>535</v>
-      </c>
-      <c r="B21" s="136" t="s">
-        <v>536</v>
-      </c>
-      <c r="C21" s="136" t="s">
+      <c r="A21" s="135" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="134"/>
+      <c r="B21" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="138" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" s="136"/>
     </row>
     <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="137" t="s">
-        <v>538</v>
-      </c>
-      <c r="B22" s="118" t="s">
-        <v>539</v>
-      </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
+      <c r="A22" s="139" t="s">
+        <v>540</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>541</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
-      <c r="B23" s="138" t="s">
-        <v>480</v>
+      <c r="B23" s="140" t="s">
+        <v>482</v>
       </c>
       <c r="D23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="B24" s="138" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>482</v>
+      <c r="B24" s="140" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="125" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
-      <c r="B25" s="138" t="s">
-        <v>483</v>
-      </c>
-      <c r="C25" s="119" t="s">
-        <v>484</v>
-      </c>
-      <c r="D25" s="138"/>
+      <c r="B25" s="140" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="140"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
-      <c r="B26" s="138" t="s">
-        <v>485</v>
-      </c>
-      <c r="C26" s="119" t="s">
-        <v>485</v>
+      <c r="B26" s="140" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="121" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
-      <c r="B27" s="138" t="s">
-        <v>486</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>486</v>
+      <c r="B27" s="140" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="B29" s="138" t="s">
-        <v>487</v>
+      <c r="B29" s="140" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
-      <c r="B30" s="138"/>
+      <c r="B30" s="140"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="B31" s="138" t="s">
-        <v>540</v>
-      </c>
-      <c r="C31" s="123" t="s">
-        <v>541</v>
+      <c r="B31" s="140" t="s">
+        <v>542</v>
+      </c>
+      <c r="C31" s="125" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="139"/>
-      <c r="B32" s="140" t="s">
-        <v>542</v>
-      </c>
-      <c r="C32" s="140" t="s">
-        <v>543</v>
+      <c r="A32" s="141"/>
+      <c r="B32" s="142" t="s">
+        <v>544</v>
+      </c>
+      <c r="C32" s="142" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="139"/>
-      <c r="B33" s="141" t="s">
-        <v>544</v>
-      </c>
-      <c r="C33" s="142"/>
+      <c r="A33" s="141"/>
+      <c r="B33" s="143" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" s="144"/>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="139"/>
-      <c r="B34" s="141" t="s">
-        <v>545</v>
-      </c>
-      <c r="C34" s="142"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="143" t="s">
+        <v>547</v>
+      </c>
+      <c r="C34" s="144"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="139"/>
-      <c r="B35" s="141" t="s">
-        <v>546</v>
-      </c>
-      <c r="C35" s="142"/>
+      <c r="A35" s="141"/>
+      <c r="B35" s="143" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" s="144"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="139"/>
-      <c r="B36" s="141" t="s">
-        <v>547</v>
-      </c>
-      <c r="C36" s="142"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="143" t="s">
+        <v>549</v>
+      </c>
+      <c r="C36" s="144"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="139"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
+      <c r="A37" s="141"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="139"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="142"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="144"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="139"/>
-      <c r="B39" s="140" t="s">
-        <v>548</v>
-      </c>
-      <c r="C39" s="142"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="142" t="s">
+        <v>550</v>
+      </c>
+      <c r="C39" s="144"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="139"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="142"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="144"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="139"/>
-      <c r="B41" s="141" t="s">
-        <v>549</v>
-      </c>
-      <c r="C41" s="142"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="143" t="s">
+        <v>551</v>
+      </c>
+      <c r="C41" s="144"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="139"/>
-      <c r="B42" s="141" t="s">
-        <v>550</v>
-      </c>
-      <c r="C42" s="142"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="143" t="s">
+        <v>552</v>
+      </c>
+      <c r="C42" s="144"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="139"/>
-      <c r="B43" s="141" t="s">
-        <v>551</v>
-      </c>
-      <c r="C43" s="142"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="143" t="s">
+        <v>553</v>
+      </c>
+      <c r="C43" s="144"/>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="139"/>
-      <c r="B44" s="141" t="s">
-        <v>552</v>
-      </c>
-      <c r="C44" s="141" t="s">
-        <v>552</v>
+      <c r="A44" s="141"/>
+      <c r="B44" s="143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C44" s="143" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="143"/>
-      <c r="B45" s="144" t="s">
-        <v>489</v>
-      </c>
-      <c r="C45" s="144" t="s">
-        <v>553</v>
+      <c r="A45" s="145"/>
+      <c r="B45" s="146" t="s">
+        <v>491</v>
+      </c>
+      <c r="C45" s="146" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="143"/>
-      <c r="B46" s="145" t="s">
-        <v>554</v>
-      </c>
-      <c r="C46" s="145" t="s">
-        <v>555</v>
+      <c r="A46" s="145"/>
+      <c r="B46" s="147" t="s">
+        <v>556</v>
+      </c>
+      <c r="C46" s="147" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="143"/>
-      <c r="B47" s="144" t="s">
-        <v>556</v>
-      </c>
-      <c r="C47" s="144"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="146" t="s">
+        <v>558</v>
+      </c>
+      <c r="C47" s="146"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="143"/>
-      <c r="B48" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="C48" s="144"/>
+      <c r="A48" s="145"/>
+      <c r="B48" s="146" t="s">
+        <v>559</v>
+      </c>
+      <c r="C48" s="146"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="143"/>
-      <c r="B49" s="144" t="s">
-        <v>558</v>
-      </c>
-      <c r="C49" s="144"/>
+      <c r="A49" s="145"/>
+      <c r="B49" s="146" t="s">
+        <v>560</v>
+      </c>
+      <c r="C49" s="146"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="144"/>
-      <c r="B50" s="144" t="s">
-        <v>559</v>
-      </c>
-      <c r="C50" s="144" t="s">
-        <v>559</v>
+      <c r="A50" s="146"/>
+      <c r="B50" s="146" t="s">
+        <v>561</v>
+      </c>
+      <c r="C50" s="146" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
-      <c r="B51" s="138"/>
+      <c r="B51" s="140"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="146"/>
-      <c r="B52" s="130" t="s">
-        <v>494</v>
-      </c>
-      <c r="C52" s="131" t="s">
-        <v>494</v>
+      <c r="A52" s="148"/>
+      <c r="B52" s="132" t="s">
+        <v>496</v>
+      </c>
+      <c r="C52" s="133" t="s">
+        <v>496</v>
       </c>
       <c r="D52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="146"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
+      <c r="A53" s="148"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="146"/>
-      <c r="B54" s="131" t="s">
-        <v>560</v>
-      </c>
-      <c r="C54" s="132" t="s">
-        <v>561</v>
+      <c r="A54" s="148"/>
+      <c r="B54" s="133" t="s">
+        <v>562</v>
+      </c>
+      <c r="C54" s="134" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="146"/>
-      <c r="B55" s="131" t="s">
-        <v>562</v>
-      </c>
-      <c r="C55" s="131" t="s">
-        <v>563</v>
+      <c r="A55" s="148"/>
+      <c r="B55" s="133" t="s">
+        <v>564</v>
+      </c>
+      <c r="C55" s="133" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="146"/>
-      <c r="B56" s="131"/>
-      <c r="C56" s="132" t="s">
-        <v>564</v>
+      <c r="A56" s="148"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="134" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="146"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="118" t="s">
-        <v>565</v>
+      <c r="A57" s="148"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="120" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="146"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="118" t="s">
-        <v>495</v>
+      <c r="A58" s="148"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="120" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="146"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="118" t="s">
-        <v>497</v>
+      <c r="A59" s="148"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="120" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="146"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="118" t="s">
-        <v>499</v>
+      <c r="A60" s="148"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="120" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="146"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="119" t="s">
-        <v>500</v>
+      <c r="A61" s="148"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="121" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="146"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="119" t="s">
-        <v>501</v>
+      <c r="A62" s="148"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="121" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="146"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="118" t="s">
-        <v>502</v>
+      <c r="A63" s="148"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="120" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="130"/>
-      <c r="B64" s="130" t="s">
-        <v>566</v>
-      </c>
-      <c r="C64" s="132" t="s">
-        <v>567</v>
+      <c r="A64" s="132"/>
+      <c r="B64" s="132" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" s="134" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="130"/>
-      <c r="B65" s="130"/>
-      <c r="C65" s="132"/>
+      <c r="A65" s="132"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="134"/>
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="137" t="s">
-        <v>568</v>
-      </c>
-      <c r="B66" s="118" t="s">
+      <c r="A66" s="139" t="s">
+        <v>570</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>541</v>
+      </c>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="132"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="134"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="132"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="134"/>
+    </row>
+    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="138" t="s">
+        <v>571</v>
+      </c>
+      <c r="B70" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="C70" s="138" t="s">
         <v>539</v>
       </c>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="130"/>
-      <c r="B67" s="130"/>
-      <c r="C67" s="132"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="130"/>
-      <c r="B68" s="130"/>
-      <c r="C68" s="132"/>
-    </row>
-    <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="136" t="s">
-        <v>569</v>
-      </c>
-      <c r="B70" s="136" t="s">
-        <v>536</v>
-      </c>
-      <c r="C70" s="136" t="s">
-        <v>537</v>
-      </c>
-      <c r="D70" s="134"/>
+      <c r="D70" s="136"/>
     </row>
     <row r="71" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="147" t="s">
-        <v>570</v>
-      </c>
-      <c r="B71" s="148"/>
-      <c r="C71" s="149"/>
+      <c r="A71" s="149" t="s">
+        <v>572</v>
+      </c>
+      <c r="B71" s="150"/>
+      <c r="C71" s="151"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="150" t="s">
-        <v>571</v>
-      </c>
-      <c r="B72" s="138"/>
-      <c r="C72" s="123" t="s">
-        <v>572</v>
+      <c r="A72" s="152" t="s">
+        <v>573</v>
+      </c>
+      <c r="B72" s="140"/>
+      <c r="C72" s="125" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="150" t="s">
-        <v>573</v>
-      </c>
-      <c r="B73" s="138" t="s">
-        <v>574</v>
-      </c>
-      <c r="C73" s="123" t="s">
+      <c r="A73" s="152" t="s">
         <v>575</v>
       </c>
+      <c r="B73" s="140" t="s">
+        <v>576</v>
+      </c>
+      <c r="C73" s="125" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="150" t="s">
-        <v>576</v>
-      </c>
-      <c r="B74" s="138" t="s">
-        <v>577</v>
-      </c>
-      <c r="C74" s="123" t="s">
+      <c r="A74" s="152" t="s">
         <v>578</v>
       </c>
+      <c r="B74" s="140" t="s">
+        <v>579</v>
+      </c>
+      <c r="C74" s="125" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="150" t="s">
-        <v>579</v>
-      </c>
-      <c r="B75" s="138"/>
+      <c r="A75" s="152" t="s">
+        <v>581</v>
+      </c>
+      <c r="B75" s="140"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="150"/>
-      <c r="B76" s="138"/>
+      <c r="A76" s="152"/>
+      <c r="B76" s="140"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="150" t="s">
-        <v>580</v>
-      </c>
-      <c r="B77" s="151"/>
+      <c r="A77" s="152" t="s">
+        <v>582</v>
+      </c>
+      <c r="B77" s="153"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="150" t="s">
-        <v>581</v>
-      </c>
-      <c r="B78" s="138"/>
+      <c r="A78" s="152" t="s">
+        <v>583</v>
+      </c>
+      <c r="B78" s="140"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="150" t="s">
-        <v>582</v>
-      </c>
-      <c r="B79" s="138"/>
+      <c r="A79" s="152" t="s">
+        <v>584</v>
+      </c>
+      <c r="B79" s="140"/>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="150" t="s">
-        <v>583</v>
-      </c>
-      <c r="B80" s="138" t="s">
-        <v>584</v>
+      <c r="A80" s="152" t="s">
+        <v>585</v>
+      </c>
+      <c r="B80" s="140" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="150" t="s">
-        <v>585</v>
-      </c>
-      <c r="B81" s="138" t="s">
-        <v>584</v>
+      <c r="A81" s="152" t="s">
+        <v>587</v>
+      </c>
+      <c r="B81" s="140" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="B82" s="138" t="s">
-        <v>587</v>
+      <c r="A82" s="152" t="s">
+        <v>588</v>
+      </c>
+      <c r="B82" s="140" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="150" t="s">
-        <v>588</v>
-      </c>
-      <c r="B83" s="138" t="s">
-        <v>589</v>
+      <c r="A83" s="152" t="s">
+        <v>590</v>
+      </c>
+      <c r="B83" s="140" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="150" t="s">
-        <v>590</v>
-      </c>
-      <c r="B84" s="138" t="s">
-        <v>591</v>
+      <c r="A84" s="152" t="s">
+        <v>592</v>
+      </c>
+      <c r="B84" s="140" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="150" t="s">
-        <v>592</v>
-      </c>
-      <c r="B85" s="150"/>
+      <c r="A85" s="152" t="s">
+        <v>594</v>
+      </c>
+      <c r="B85" s="152"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="150"/>
-      <c r="B86" s="150"/>
+      <c r="A86" s="152"/>
+      <c r="B86" s="152"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="150" t="s">
-        <v>593</v>
-      </c>
-      <c r="B87" s="138" t="s">
-        <v>594</v>
-      </c>
-      <c r="C87" s="123" t="s">
+      <c r="A87" s="152" t="s">
         <v>595</v>
       </c>
+      <c r="B87" s="140" t="s">
+        <v>596</v>
+      </c>
+      <c r="C87" s="125" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="150" t="s">
-        <v>596</v>
-      </c>
-      <c r="B88" s="138"/>
-      <c r="C88" s="123" t="s">
-        <v>595</v>
+      <c r="A88" s="152" t="s">
+        <v>598</v>
+      </c>
+      <c r="B88" s="140"/>
+      <c r="C88" s="125" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="150"/>
-      <c r="B89" s="138"/>
+      <c r="A89" s="152"/>
+      <c r="B89" s="140"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="150" t="s">
+      <c r="A90" s="152" t="s">
+        <v>599</v>
+      </c>
+      <c r="B90" s="140" t="s">
         <v>597</v>
       </c>
-      <c r="B90" s="138" t="s">
-        <v>595</v>
-      </c>
-      <c r="C90" s="123" t="s">
-        <v>598</v>
+      <c r="C90" s="125" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="150" t="s">
-        <v>599</v>
-      </c>
-      <c r="B91" s="138"/>
-      <c r="C91" s="123" t="s">
+      <c r="A91" s="152" t="s">
+        <v>601</v>
+      </c>
+      <c r="B91" s="140"/>
+      <c r="C91" s="125" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="152" t="s">
+        <v>603</v>
+      </c>
+      <c r="B92" s="152"/>
+      <c r="C92" s="125" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="152"/>
+      <c r="B93" s="152"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="152" t="s">
+        <v>605</v>
+      </c>
+      <c r="B94" s="140" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="150" t="s">
-        <v>601</v>
-      </c>
-      <c r="B92" s="150"/>
-      <c r="C92" s="123" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="150"/>
-      <c r="B93" s="150"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="150" t="s">
-        <v>603</v>
-      </c>
-      <c r="B94" s="138" t="s">
-        <v>598</v>
-      </c>
-      <c r="C94" s="123" t="s">
-        <v>595</v>
+      <c r="C94" s="125" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="150"/>
-      <c r="B95" s="150"/>
+      <c r="A95" s="152"/>
+      <c r="B95" s="152"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="150"/>
-      <c r="B96" s="150"/>
+      <c r="A96" s="152"/>
+      <c r="B96" s="152"/>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="133" t="s">
-        <v>604</v>
-      </c>
-      <c r="B97" s="136" t="s">
-        <v>605</v>
-      </c>
-      <c r="C97" s="136" t="s">
-        <v>605</v>
-      </c>
-      <c r="D97" s="134"/>
+      <c r="A97" s="135" t="s">
+        <v>606</v>
+      </c>
+      <c r="B97" s="138" t="s">
+        <v>607</v>
+      </c>
+      <c r="C97" s="138" t="s">
+        <v>607</v>
+      </c>
+      <c r="D97" s="136"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="150"/>
-      <c r="B98" s="150"/>
+      <c r="A98" s="152"/>
+      <c r="B98" s="152"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="150"/>
-      <c r="B99" s="150"/>
+      <c r="A99" s="152"/>
+      <c r="B99" s="152"/>
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="133" t="s">
-        <v>604</v>
-      </c>
-      <c r="B101" s="136" t="s">
+      <c r="A101" s="135" t="s">
         <v>606</v>
       </c>
-      <c r="C101" s="136" t="s">
-        <v>606</v>
-      </c>
-      <c r="D101" s="134"/>
+      <c r="B101" s="138" t="s">
+        <v>608</v>
+      </c>
+      <c r="C101" s="138" t="s">
+        <v>608</v>
+      </c>
+      <c r="D101" s="136"/>
     </row>
     <row r="102" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="123" t="s">
-        <v>607</v>
-      </c>
-      <c r="B102" s="123" t="s">
-        <v>608</v>
-      </c>
-      <c r="C102" s="123" t="s">
+      <c r="A102" s="125" t="s">
         <v>609</v>
       </c>
+      <c r="B102" s="125" t="s">
+        <v>610</v>
+      </c>
+      <c r="C102" s="125" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="133" t="s">
-        <v>610</v>
-      </c>
-      <c r="B105" s="136" t="s">
-        <v>611</v>
-      </c>
-      <c r="C105" s="136" t="s">
+      <c r="A105" s="135" t="s">
         <v>612</v>
       </c>
-      <c r="D105" s="134"/>
+      <c r="B105" s="138" t="s">
+        <v>613</v>
+      </c>
+      <c r="C105" s="138" t="s">
+        <v>614</v>
+      </c>
+      <c r="D105" s="136"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="C106" s="123" t="s">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="C106" s="125" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0"/>
-      <c r="C107" s="123" t="s">
-        <v>615</v>
+      <c r="C107" s="125" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="C108" s="123" t="s">
-        <v>617</v>
+        <v>618</v>
+      </c>
+      <c r="C108" s="125" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="118" t="s">
-        <v>497</v>
+      <c r="A109" s="120" t="s">
+        <v>499</v>
       </c>
       <c r="B109" s="0"/>
-      <c r="C109" s="123" t="s">
-        <v>618</v>
+      <c r="C109" s="125" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="118" t="s">
-        <v>499</v>
+      <c r="A110" s="120" t="s">
+        <v>501</v>
       </c>
       <c r="B110" s="0"/>
-      <c r="C110" s="123" t="s">
-        <v>619</v>
+      <c r="C110" s="125" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="119" t="s">
-        <v>500</v>
+      <c r="A111" s="121" t="s">
+        <v>502</v>
       </c>
       <c r="B111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="119" t="s">
-        <v>501</v>
+      <c r="A112" s="121" t="s">
+        <v>503</v>
       </c>
       <c r="B112" s="0"/>
     </row>
@@ -8614,24 +8656,24 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="C116" s="123" t="s">
-        <v>623</v>
+        <v>624</v>
+      </c>
+      <c r="C116" s="125" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="151"/>
+      <c r="B123" s="153"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
